--- a/data/confidence.xlsx
+++ b/data/confidence.xlsx
@@ -1,71 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\___CANADA\_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58397D85-293C-4142-9369-A0BC0FC242BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11364" yWindow="0" windowWidth="11754" windowHeight="13758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11364" yWindow="0" windowWidth="11754" windowHeight="13758" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>% Change vs Last Year</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,31 +52,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -396,427 +423,496 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.578125" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.41796875" style="1" customWidth="1"/>
+    <col width="12.578125" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" style="1" min="2" max="2"/>
+    <col width="14.41796875" customWidth="1" style="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>% Change vs Last Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1729048</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B6-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>45627</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="3" t="n">
         <v>47.9</v>
       </c>
-      <c r="C2" s="1">
-        <f>(B2/B14-1)*100</f>
-        <v>2.8559158256388217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="4">
+      <c r="C3" s="1">
+        <f>(B3/B7-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
         <v>45597</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="3" t="n">
         <v>48.6</v>
       </c>
-      <c r="C3" s="1">
-        <f>(B3/B15-1)*100</f>
-        <v>2.8353787558188737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2">
+      <c r="C4" s="1">
+        <f>(B4/B8-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="3" t="n">
         <v>49.1</v>
       </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:C26" si="0">(B4/B16-1)*100</f>
-        <v>7.7699736611062331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4">
+      <c r="C5" s="1">
+        <f>(B5/B9-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
         <v>45536</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="3" t="n">
         <v>49.5</v>
       </c>
-      <c r="C5" s="1">
-        <f t="shared" si="0"/>
-        <v>3.8606798153588029</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2">
+      <c r="C6" s="1">
+        <f>(B6/B10-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45505</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B7" s="3" t="n">
         <v>50.1</v>
       </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>6.8230277185501231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="4">
+      <c r="C7" s="1">
+        <f>(B7/B11-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
         <v>45474</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>-5.1463168516649782</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2">
+      <c r="C8" s="1">
+        <f>(B8/B12-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B9" s="3" t="n">
         <v>47.1</v>
       </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>-8.419210577483959</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="4">
+      <c r="C9" s="1">
+        <f>(B9/B13-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
         <v>45413</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="3" t="n">
         <v>47.2</v>
       </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>-4.7234557932983368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
+      <c r="C10" s="1">
+        <f>(B10/B14-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>45383</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.5182778229082103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="4">
+      <c r="C11" s="1">
+        <f>(B11/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
         <v>45352</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="3" t="n">
         <v>47.89</v>
       </c>
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.290186125211501</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
+      <c r="C12" s="1">
+        <f>(B12/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>45323</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B13" s="3" t="n">
         <v>47.38</v>
       </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.23162771109707103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="4">
+      <c r="C13" s="1">
+        <f>(B13/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
         <v>45292</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3" t="n">
         <v>49.46</v>
       </c>
-      <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3316943249334079</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2">
+      <c r="C14" s="1">
+        <f>(B14/B18-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>45261</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B15" s="3" t="n">
         <v>46.57</v>
       </c>
-      <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>-5.6141062018646215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="4">
+      <c r="C15" s="1">
+        <f>(B15/B19-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
         <v>45231</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B16" s="3" t="n">
         <v>47.26</v>
       </c>
-      <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3728013728013799</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2">
+      <c r="C16" s="1">
+        <f>(B16/B20-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="3" t="n">
         <v>45.56</v>
       </c>
-      <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>-6.0812203669346481</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="4">
+      <c r="C17" s="1">
+        <f>(B17/B21-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="n">
         <v>45170</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="3" t="n">
         <v>47.66</v>
       </c>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>-4.9461507778221119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2">
+      <c r="C18" s="1">
+        <f>(B18/B22-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B19" s="3" t="n">
         <v>46.9</v>
       </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>-6.7965023847376793</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="4">
+      <c r="C19" s="1">
+        <f>(B19/B23-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n">
         <v>45108</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="3" t="n">
         <v>49.55</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.588877855014903</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2">
+      <c r="C20" s="1">
+        <f>(B20/B24-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>45078</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="3" t="n">
         <v>51.43</v>
       </c>
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>2.0031733439111354</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="4">
+      <c r="C21" s="1">
+        <f>(B21/B25-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n">
         <v>45047</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="3" t="n">
         <v>49.54</v>
       </c>
-      <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>-5.1502967643116904</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2">
+      <c r="C22" s="1">
+        <f>(B22/B26-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B23" s="3" t="n">
         <v>49.24</v>
       </c>
-      <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.4805922368947511</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="4">
+      <c r="C23" s="1">
+        <f>(B23/B27-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n">
         <v>44986</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B24" s="3" t="n">
         <v>47.28</v>
       </c>
-      <c r="C23" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.6871053167651269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2">
+      <c r="C24" s="1">
+        <f>(B24/B28-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B25" s="3" t="n">
         <v>47.49</v>
       </c>
-      <c r="C24" s="1">
-        <f t="shared" si="0"/>
-        <v>-7.6249756856642588</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="4">
+      <c r="C25" s="1">
+        <f>(B25/B29-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n">
         <v>44927</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B26" s="3" t="n">
         <v>48.81</v>
       </c>
-      <c r="C25" s="1">
-        <f t="shared" si="0"/>
-        <v>-5.2417006406522919</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2">
+      <c r="C26" s="1">
+        <f>(B26/B30-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B27" s="3" t="n">
         <v>49.34</v>
       </c>
-      <c r="C26" s="1">
-        <f t="shared" si="0"/>
-        <v>-5.6235654169854543</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="4">
+      <c r="C27" s="1">
+        <f>(B27/B31-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n">
         <v>44866</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B28" s="3" t="n">
         <v>46.62</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2">
+      <c r="C28">
+        <f>(B28/B32-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B29" s="3" t="n">
         <v>48.51</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="4">
+      <c r="C29">
+        <f>(B29/B33-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n">
         <v>44805</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B30" s="3" t="n">
         <v>50.14</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2">
+      <c r="C30">
+        <f>(B30/B34-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B31" s="3" t="n">
         <v>50.32</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="4">
+      <c r="C31">
+        <f>(B31/B35-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="n">
         <v>44743</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B32" s="3" t="n">
         <v>50.35</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2">
+      <c r="C32">
+        <f>(B32/B36-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>44713</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B33" s="3" t="n">
         <v>50.42</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="4">
+      <c r="C33">
+        <f>(B33/B37-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="n">
         <v>44682</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B34" s="3" t="n">
         <v>52.23</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2">
+      <c r="C34">
+        <f>(B34/B38-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>44652</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B35" s="3" t="n">
         <v>49.98</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="4">
+      <c r="C35">
+        <f>(B35/B39-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n">
         <v>44621</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B36" s="3" t="n">
         <v>49.09</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2">
+      <c r="C36">
+        <f>(B36/B40-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>44593</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B37" s="3" t="n">
         <v>51.41</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="4">
+      <c r="C37">
+        <f>(B37/B41-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n">
         <v>44562</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B38" s="3" t="n">
         <v>51.51</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2">
+      <c r="C38">
+        <f>(B38/B42-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B39" s="3" t="n">
         <v>52.28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/confidence.xlsx
+++ b/data/confidence.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,35 +461,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1756560</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B6-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2024-09-01</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>1729048</v>
       </c>
-      <c r="C2">
-        <f>(B2/B6-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="C3">
+        <f>(B3/B7-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>45627</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B4" s="3" t="n">
         <v>47.9</v>
-      </c>
-      <c r="C3" s="1">
-        <f>(B3/B7-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>48.6</v>
       </c>
       <c r="C4" s="1">
         <f>(B4/B8-1)*100</f>
@@ -497,11 +499,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45566</v>
+      <c r="A5" s="4" t="n">
+        <v>45597</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>49.1</v>
+        <v>48.6</v>
       </c>
       <c r="C5" s="1">
         <f>(B5/B9-1)*100</f>
@@ -509,11 +511,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>45536</v>
+      <c r="A6" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>49.5</v>
+        <v>49.1</v>
       </c>
       <c r="C6" s="1">
         <f>(B6/B10-1)*100</f>
@@ -521,11 +523,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45505</v>
+      <c r="A7" s="4" t="n">
+        <v>45536</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>50.1</v>
+        <v>49.5</v>
       </c>
       <c r="C7" s="1">
         <f>(B7/B11-1)*100</f>
@@ -533,11 +535,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>45474</v>
+      <c r="A8" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>47</v>
+        <v>50.1</v>
       </c>
       <c r="C8" s="1">
         <f>(B8/B12-1)*100</f>
@@ -545,11 +547,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45444</v>
+      <c r="A9" s="4" t="n">
+        <v>45474</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1">
         <f>(B9/B13-1)*100</f>
@@ -557,11 +559,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>45413</v>
+      <c r="A10" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="C10" s="1">
         <f>(B10/B14-1)*100</f>
@@ -569,11 +571,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45383</v>
+      <c r="A11" s="4" t="n">
+        <v>45413</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>48</v>
+        <v>47.2</v>
       </c>
       <c r="C11" s="1">
         <f>(B11/B15-1)*100</f>
@@ -581,11 +583,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
-        <v>45352</v>
+      <c r="A12" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>47.89</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1">
         <f>(B12/B16-1)*100</f>
@@ -593,11 +595,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45323</v>
+      <c r="A13" s="4" t="n">
+        <v>45352</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>47.38</v>
+        <v>47.89</v>
       </c>
       <c r="C13" s="1">
         <f>(B13/B17-1)*100</f>
@@ -605,11 +607,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
-        <v>45292</v>
+      <c r="A14" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>49.46</v>
+        <v>47.38</v>
       </c>
       <c r="C14" s="1">
         <f>(B14/B18-1)*100</f>
@@ -617,11 +619,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45261</v>
+      <c r="A15" s="4" t="n">
+        <v>45292</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>46.57</v>
+        <v>49.46</v>
       </c>
       <c r="C15" s="1">
         <f>(B15/B19-1)*100</f>
@@ -629,11 +631,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
-        <v>45231</v>
+      <c r="A16" s="2" t="n">
+        <v>45261</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>47.26</v>
+        <v>46.57</v>
       </c>
       <c r="C16" s="1">
         <f>(B16/B20-1)*100</f>
@@ -641,11 +643,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45200</v>
+      <c r="A17" s="4" t="n">
+        <v>45231</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>45.56</v>
+        <v>47.26</v>
       </c>
       <c r="C17" s="1">
         <f>(B17/B21-1)*100</f>
@@ -653,11 +655,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
-        <v>45170</v>
+      <c r="A18" s="2" t="n">
+        <v>45200</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>47.66</v>
+        <v>45.56</v>
       </c>
       <c r="C18" s="1">
         <f>(B18/B22-1)*100</f>
@@ -665,11 +667,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45139</v>
+      <c r="A19" s="4" t="n">
+        <v>45170</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>46.9</v>
+        <v>47.66</v>
       </c>
       <c r="C19" s="1">
         <f>(B19/B23-1)*100</f>
@@ -677,11 +679,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
-        <v>45108</v>
+      <c r="A20" s="2" t="n">
+        <v>45139</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>49.55</v>
+        <v>46.9</v>
       </c>
       <c r="C20" s="1">
         <f>(B20/B24-1)*100</f>
@@ -689,11 +691,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45078</v>
+      <c r="A21" s="4" t="n">
+        <v>45108</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>51.43</v>
+        <v>49.55</v>
       </c>
       <c r="C21" s="1">
         <f>(B21/B25-1)*100</f>
@@ -701,11 +703,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
-        <v>45047</v>
+      <c r="A22" s="2" t="n">
+        <v>45078</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>49.54</v>
+        <v>51.43</v>
       </c>
       <c r="C22" s="1">
         <f>(B22/B26-1)*100</f>
@@ -713,11 +715,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45017</v>
+      <c r="A23" s="4" t="n">
+        <v>45047</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>49.24</v>
+        <v>49.54</v>
       </c>
       <c r="C23" s="1">
         <f>(B23/B27-1)*100</f>
@@ -725,11 +727,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
-        <v>44986</v>
+      <c r="A24" s="2" t="n">
+        <v>45017</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>47.28</v>
+        <v>49.24</v>
       </c>
       <c r="C24" s="1">
         <f>(B24/B28-1)*100</f>
@@ -737,11 +739,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>44958</v>
+      <c r="A25" s="4" t="n">
+        <v>44986</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>47.49</v>
+        <v>47.28</v>
       </c>
       <c r="C25" s="1">
         <f>(B25/B29-1)*100</f>
@@ -749,11 +751,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
-        <v>44927</v>
+      <c r="A26" s="2" t="n">
+        <v>44958</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>48.81</v>
+        <v>47.49</v>
       </c>
       <c r="C26" s="1">
         <f>(B26/B30-1)*100</f>
@@ -761,11 +763,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>44896</v>
+      <c r="A27" s="4" t="n">
+        <v>44927</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>49.34</v>
+        <v>48.81</v>
       </c>
       <c r="C27" s="1">
         <f>(B27/B31-1)*100</f>
@@ -773,23 +775,23 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>49.34</v>
+      </c>
+      <c r="C28" s="1">
+        <f>(B28/B32-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n">
         <v>44866</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B29" s="3" t="n">
         <v>46.62</v>
-      </c>
-      <c r="C28">
-        <f>(B28/B32-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>44835</v>
-      </c>
-      <c r="B29" s="3" t="n">
-        <v>48.51</v>
       </c>
       <c r="C29">
         <f>(B29/B33-1)*100</f>
@@ -797,11 +799,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
-        <v>44805</v>
+      <c r="A30" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>50.14</v>
+        <v>48.51</v>
       </c>
       <c r="C30">
         <f>(B30/B34-1)*100</f>
@@ -809,11 +811,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>44774</v>
+      <c r="A31" s="4" t="n">
+        <v>44805</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>50.32</v>
+        <v>50.14</v>
       </c>
       <c r="C31">
         <f>(B31/B35-1)*100</f>
@@ -821,11 +823,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
-        <v>44743</v>
+      <c r="A32" s="2" t="n">
+        <v>44774</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>50.35</v>
+        <v>50.32</v>
       </c>
       <c r="C32">
         <f>(B32/B36-1)*100</f>
@@ -833,11 +835,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>44713</v>
+      <c r="A33" s="4" t="n">
+        <v>44743</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>50.42</v>
+        <v>50.35</v>
       </c>
       <c r="C33">
         <f>(B33/B37-1)*100</f>
@@ -845,11 +847,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
-        <v>44682</v>
+      <c r="A34" s="2" t="n">
+        <v>44713</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>52.23</v>
+        <v>50.42</v>
       </c>
       <c r="C34">
         <f>(B34/B38-1)*100</f>
@@ -857,11 +859,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>44652</v>
+      <c r="A35" s="4" t="n">
+        <v>44682</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>49.98</v>
+        <v>52.23</v>
       </c>
       <c r="C35">
         <f>(B35/B39-1)*100</f>
@@ -869,11 +871,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
-        <v>44621</v>
+      <c r="A36" s="2" t="n">
+        <v>44652</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>49.09</v>
+        <v>49.98</v>
       </c>
       <c r="C36">
         <f>(B36/B40-1)*100</f>
@@ -881,11 +883,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>44593</v>
+      <c r="A37" s="4" t="n">
+        <v>44621</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>51.41</v>
+        <v>49.09</v>
       </c>
       <c r="C37">
         <f>(B37/B41-1)*100</f>
@@ -893,11 +895,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
-        <v>44562</v>
+      <c r="A38" s="2" t="n">
+        <v>44593</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>51.51</v>
+        <v>51.41</v>
       </c>
       <c r="C38">
         <f>(B38/B42-1)*100</f>
@@ -905,10 +907,22 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="4" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>51.51</v>
+      </c>
+      <c r="C39">
+        <f>(B39/B43-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B40" s="3" t="n">
         <v>52.28</v>
       </c>
     </row>

--- a/data/confidence.xlsx
+++ b/data/confidence.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,11 +461,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1756560</v>
+        <v>1766328</v>
       </c>
       <c r="C2">
         <f>(B2/B6-1)*100</f>
@@ -475,35 +475,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1756560</v>
+      </c>
+      <c r="C3">
+        <f>(B3/B7-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2024-09-01</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>1729048</v>
       </c>
-      <c r="C3">
-        <f>(B3/B7-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="C4">
+        <f>(B4/B8-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45627</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B5" s="3" t="n">
         <v>47.9</v>
-      </c>
-      <c r="C4" s="1">
-        <f>(B4/B8-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>48.6</v>
       </c>
       <c r="C5" s="1">
         <f>(B5/B9-1)*100</f>
@@ -511,11 +513,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45566</v>
+      <c r="A6" s="4" t="n">
+        <v>45597</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>49.1</v>
+        <v>48.6</v>
       </c>
       <c r="C6" s="1">
         <f>(B6/B10-1)*100</f>
@@ -523,11 +525,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>45536</v>
+      <c r="A7" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>49.5</v>
+        <v>49.1</v>
       </c>
       <c r="C7" s="1">
         <f>(B7/B11-1)*100</f>
@@ -535,11 +537,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45505</v>
+      <c r="A8" s="4" t="n">
+        <v>45536</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>50.1</v>
+        <v>49.5</v>
       </c>
       <c r="C8" s="1">
         <f>(B8/B12-1)*100</f>
@@ -547,11 +549,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
-        <v>45474</v>
+      <c r="A9" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>47</v>
+        <v>50.1</v>
       </c>
       <c r="C9" s="1">
         <f>(B9/B13-1)*100</f>
@@ -559,11 +561,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45444</v>
+      <c r="A10" s="4" t="n">
+        <v>45474</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1">
         <f>(B10/B14-1)*100</f>
@@ -571,11 +573,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
-        <v>45413</v>
+      <c r="A11" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="C11" s="1">
         <f>(B11/B15-1)*100</f>
@@ -583,11 +585,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45383</v>
+      <c r="A12" s="4" t="n">
+        <v>45413</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>48</v>
+        <v>47.2</v>
       </c>
       <c r="C12" s="1">
         <f>(B12/B16-1)*100</f>
@@ -595,11 +597,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
-        <v>45352</v>
+      <c r="A13" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>47.89</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1">
         <f>(B13/B17-1)*100</f>
@@ -607,11 +609,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45323</v>
+      <c r="A14" s="4" t="n">
+        <v>45352</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>47.38</v>
+        <v>47.89</v>
       </c>
       <c r="C14" s="1">
         <f>(B14/B18-1)*100</f>
@@ -619,11 +621,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
-        <v>45292</v>
+      <c r="A15" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>49.46</v>
+        <v>47.38</v>
       </c>
       <c r="C15" s="1">
         <f>(B15/B19-1)*100</f>
@@ -631,11 +633,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45261</v>
+      <c r="A16" s="4" t="n">
+        <v>45292</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>46.57</v>
+        <v>49.46</v>
       </c>
       <c r="C16" s="1">
         <f>(B16/B20-1)*100</f>
@@ -643,11 +645,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
-        <v>45231</v>
+      <c r="A17" s="2" t="n">
+        <v>45261</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>47.26</v>
+        <v>46.57</v>
       </c>
       <c r="C17" s="1">
         <f>(B17/B21-1)*100</f>
@@ -655,11 +657,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45200</v>
+      <c r="A18" s="4" t="n">
+        <v>45231</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>45.56</v>
+        <v>47.26</v>
       </c>
       <c r="C18" s="1">
         <f>(B18/B22-1)*100</f>
@@ -667,11 +669,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
-        <v>45170</v>
+      <c r="A19" s="2" t="n">
+        <v>45200</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>47.66</v>
+        <v>45.56</v>
       </c>
       <c r="C19" s="1">
         <f>(B19/B23-1)*100</f>
@@ -679,11 +681,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45139</v>
+      <c r="A20" s="4" t="n">
+        <v>45170</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>46.9</v>
+        <v>47.66</v>
       </c>
       <c r="C20" s="1">
         <f>(B20/B24-1)*100</f>
@@ -691,11 +693,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n">
-        <v>45108</v>
+      <c r="A21" s="2" t="n">
+        <v>45139</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>49.55</v>
+        <v>46.9</v>
       </c>
       <c r="C21" s="1">
         <f>(B21/B25-1)*100</f>
@@ -703,11 +705,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45078</v>
+      <c r="A22" s="4" t="n">
+        <v>45108</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>51.43</v>
+        <v>49.55</v>
       </c>
       <c r="C22" s="1">
         <f>(B22/B26-1)*100</f>
@@ -715,11 +717,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n">
-        <v>45047</v>
+      <c r="A23" s="2" t="n">
+        <v>45078</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>49.54</v>
+        <v>51.43</v>
       </c>
       <c r="C23" s="1">
         <f>(B23/B27-1)*100</f>
@@ -727,11 +729,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45017</v>
+      <c r="A24" s="4" t="n">
+        <v>45047</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>49.24</v>
+        <v>49.54</v>
       </c>
       <c r="C24" s="1">
         <f>(B24/B28-1)*100</f>
@@ -739,11 +741,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n">
-        <v>44986</v>
+      <c r="A25" s="2" t="n">
+        <v>45017</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>47.28</v>
+        <v>49.24</v>
       </c>
       <c r="C25" s="1">
         <f>(B25/B29-1)*100</f>
@@ -751,11 +753,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>44958</v>
+      <c r="A26" s="4" t="n">
+        <v>44986</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>47.49</v>
+        <v>47.28</v>
       </c>
       <c r="C26" s="1">
         <f>(B26/B30-1)*100</f>
@@ -763,11 +765,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n">
-        <v>44927</v>
+      <c r="A27" s="2" t="n">
+        <v>44958</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>48.81</v>
+        <v>47.49</v>
       </c>
       <c r="C27" s="1">
         <f>(B27/B31-1)*100</f>
@@ -775,11 +777,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>44896</v>
+      <c r="A28" s="4" t="n">
+        <v>44927</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>49.34</v>
+        <v>48.81</v>
       </c>
       <c r="C28" s="1">
         <f>(B28/B32-1)*100</f>
@@ -787,23 +789,23 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n">
+      <c r="A29" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>49.34</v>
+      </c>
+      <c r="C29" s="1">
+        <f>(B29/B33-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n">
         <v>44866</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B30" s="3" t="n">
         <v>46.62</v>
-      </c>
-      <c r="C29">
-        <f>(B29/B33-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>44835</v>
-      </c>
-      <c r="B30" s="3" t="n">
-        <v>48.51</v>
       </c>
       <c r="C30">
         <f>(B30/B34-1)*100</f>
@@ -811,11 +813,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="n">
-        <v>44805</v>
+      <c r="A31" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>50.14</v>
+        <v>48.51</v>
       </c>
       <c r="C31">
         <f>(B31/B35-1)*100</f>
@@ -823,11 +825,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>44774</v>
+      <c r="A32" s="4" t="n">
+        <v>44805</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>50.32</v>
+        <v>50.14</v>
       </c>
       <c r="C32">
         <f>(B32/B36-1)*100</f>
@@ -835,11 +837,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n">
-        <v>44743</v>
+      <c r="A33" s="2" t="n">
+        <v>44774</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>50.35</v>
+        <v>50.32</v>
       </c>
       <c r="C33">
         <f>(B33/B37-1)*100</f>
@@ -847,11 +849,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>44713</v>
+      <c r="A34" s="4" t="n">
+        <v>44743</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>50.42</v>
+        <v>50.35</v>
       </c>
       <c r="C34">
         <f>(B34/B38-1)*100</f>
@@ -859,11 +861,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n">
-        <v>44682</v>
+      <c r="A35" s="2" t="n">
+        <v>44713</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>52.23</v>
+        <v>50.42</v>
       </c>
       <c r="C35">
         <f>(B35/B39-1)*100</f>
@@ -871,11 +873,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>44652</v>
+      <c r="A36" s="4" t="n">
+        <v>44682</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>49.98</v>
+        <v>52.23</v>
       </c>
       <c r="C36">
         <f>(B36/B40-1)*100</f>
@@ -883,11 +885,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="n">
-        <v>44621</v>
+      <c r="A37" s="2" t="n">
+        <v>44652</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>49.09</v>
+        <v>49.98</v>
       </c>
       <c r="C37">
         <f>(B37/B41-1)*100</f>
@@ -895,11 +897,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>44593</v>
+      <c r="A38" s="4" t="n">
+        <v>44621</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>51.41</v>
+        <v>49.09</v>
       </c>
       <c r="C38">
         <f>(B38/B42-1)*100</f>
@@ -907,11 +909,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="n">
-        <v>44562</v>
+      <c r="A39" s="2" t="n">
+        <v>44593</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>51.51</v>
+        <v>51.41</v>
       </c>
       <c r="C39">
         <f>(B39/B43-1)*100</f>
@@ -919,10 +921,22 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="4" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>51.51</v>
+      </c>
+      <c r="C40">
+        <f>(B40/B44-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B41" s="3" t="n">
         <v>52.28</v>
       </c>
     </row>

--- a/data/confidence.xlsx
+++ b/data/confidence.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,11 +461,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1766328</v>
+        <v>1773656</v>
       </c>
       <c r="C2">
         <f>(B2/B6-1)*100</f>
@@ -475,11 +475,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1756560</v>
+        <v>1766328</v>
       </c>
       <c r="C3">
         <f>(B3/B7-1)*100</f>
@@ -489,35 +489,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1756560</v>
+      </c>
+      <c r="C4">
+        <f>(B4/B8-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2024-09-01</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>1729048</v>
       </c>
-      <c r="C4">
-        <f>(B4/B8-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="C5">
+        <f>(B5/B9-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45627</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B6" s="3" t="n">
         <v>47.9</v>
-      </c>
-      <c r="C5" s="1">
-        <f>(B5/B9-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>48.6</v>
       </c>
       <c r="C6" s="1">
         <f>(B6/B10-1)*100</f>
@@ -525,11 +527,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45566</v>
+      <c r="A7" s="4" t="n">
+        <v>45597</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>49.1</v>
+        <v>48.6</v>
       </c>
       <c r="C7" s="1">
         <f>(B7/B11-1)*100</f>
@@ -537,11 +539,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>45536</v>
+      <c r="A8" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>49.5</v>
+        <v>49.1</v>
       </c>
       <c r="C8" s="1">
         <f>(B8/B12-1)*100</f>
@@ -549,11 +551,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45505</v>
+      <c r="A9" s="4" t="n">
+        <v>45536</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>50.1</v>
+        <v>49.5</v>
       </c>
       <c r="C9" s="1">
         <f>(B9/B13-1)*100</f>
@@ -561,11 +563,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>45474</v>
+      <c r="A10" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>47</v>
+        <v>50.1</v>
       </c>
       <c r="C10" s="1">
         <f>(B10/B14-1)*100</f>
@@ -573,11 +575,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45444</v>
+      <c r="A11" s="4" t="n">
+        <v>45474</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1">
         <f>(B11/B15-1)*100</f>
@@ -585,11 +587,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
-        <v>45413</v>
+      <c r="A12" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="C12" s="1">
         <f>(B12/B16-1)*100</f>
@@ -597,11 +599,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45383</v>
+      <c r="A13" s="4" t="n">
+        <v>45413</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>48</v>
+        <v>47.2</v>
       </c>
       <c r="C13" s="1">
         <f>(B13/B17-1)*100</f>
@@ -609,11 +611,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
-        <v>45352</v>
+      <c r="A14" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>47.89</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1">
         <f>(B14/B18-1)*100</f>
@@ -621,11 +623,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45323</v>
+      <c r="A15" s="4" t="n">
+        <v>45352</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>47.38</v>
+        <v>47.89</v>
       </c>
       <c r="C15" s="1">
         <f>(B15/B19-1)*100</f>
@@ -633,11 +635,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
-        <v>45292</v>
+      <c r="A16" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>49.46</v>
+        <v>47.38</v>
       </c>
       <c r="C16" s="1">
         <f>(B16/B20-1)*100</f>
@@ -645,11 +647,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45261</v>
+      <c r="A17" s="4" t="n">
+        <v>45292</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>46.57</v>
+        <v>49.46</v>
       </c>
       <c r="C17" s="1">
         <f>(B17/B21-1)*100</f>
@@ -657,11 +659,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
-        <v>45231</v>
+      <c r="A18" s="2" t="n">
+        <v>45261</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>47.26</v>
+        <v>46.57</v>
       </c>
       <c r="C18" s="1">
         <f>(B18/B22-1)*100</f>
@@ -669,11 +671,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45200</v>
+      <c r="A19" s="4" t="n">
+        <v>45231</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>45.56</v>
+        <v>47.26</v>
       </c>
       <c r="C19" s="1">
         <f>(B19/B23-1)*100</f>
@@ -681,11 +683,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
-        <v>45170</v>
+      <c r="A20" s="2" t="n">
+        <v>45200</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>47.66</v>
+        <v>45.56</v>
       </c>
       <c r="C20" s="1">
         <f>(B20/B24-1)*100</f>
@@ -693,11 +695,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45139</v>
+      <c r="A21" s="4" t="n">
+        <v>45170</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>46.9</v>
+        <v>47.66</v>
       </c>
       <c r="C21" s="1">
         <f>(B21/B25-1)*100</f>
@@ -705,11 +707,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
-        <v>45108</v>
+      <c r="A22" s="2" t="n">
+        <v>45139</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>49.55</v>
+        <v>46.9</v>
       </c>
       <c r="C22" s="1">
         <f>(B22/B26-1)*100</f>
@@ -717,11 +719,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45078</v>
+      <c r="A23" s="4" t="n">
+        <v>45108</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>51.43</v>
+        <v>49.55</v>
       </c>
       <c r="C23" s="1">
         <f>(B23/B27-1)*100</f>
@@ -729,11 +731,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
-        <v>45047</v>
+      <c r="A24" s="2" t="n">
+        <v>45078</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>49.54</v>
+        <v>51.43</v>
       </c>
       <c r="C24" s="1">
         <f>(B24/B28-1)*100</f>
@@ -741,11 +743,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45017</v>
+      <c r="A25" s="4" t="n">
+        <v>45047</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>49.24</v>
+        <v>49.54</v>
       </c>
       <c r="C25" s="1">
         <f>(B25/B29-1)*100</f>
@@ -753,11 +755,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
-        <v>44986</v>
+      <c r="A26" s="2" t="n">
+        <v>45017</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>47.28</v>
+        <v>49.24</v>
       </c>
       <c r="C26" s="1">
         <f>(B26/B30-1)*100</f>
@@ -765,11 +767,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>44958</v>
+      <c r="A27" s="4" t="n">
+        <v>44986</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>47.49</v>
+        <v>47.28</v>
       </c>
       <c r="C27" s="1">
         <f>(B27/B31-1)*100</f>
@@ -777,11 +779,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
-        <v>44927</v>
+      <c r="A28" s="2" t="n">
+        <v>44958</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>48.81</v>
+        <v>47.49</v>
       </c>
       <c r="C28" s="1">
         <f>(B28/B32-1)*100</f>
@@ -789,11 +791,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>44896</v>
+      <c r="A29" s="4" t="n">
+        <v>44927</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>49.34</v>
+        <v>48.81</v>
       </c>
       <c r="C29" s="1">
         <f>(B29/B33-1)*100</f>
@@ -801,23 +803,23 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>49.34</v>
+      </c>
+      <c r="C30" s="1">
+        <f>(B30/B34-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="n">
         <v>44866</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B31" s="3" t="n">
         <v>46.62</v>
-      </c>
-      <c r="C30">
-        <f>(B30/B34-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>44835</v>
-      </c>
-      <c r="B31" s="3" t="n">
-        <v>48.51</v>
       </c>
       <c r="C31">
         <f>(B31/B35-1)*100</f>
@@ -825,11 +827,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
-        <v>44805</v>
+      <c r="A32" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>50.14</v>
+        <v>48.51</v>
       </c>
       <c r="C32">
         <f>(B32/B36-1)*100</f>
@@ -837,11 +839,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>44774</v>
+      <c r="A33" s="4" t="n">
+        <v>44805</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>50.32</v>
+        <v>50.14</v>
       </c>
       <c r="C33">
         <f>(B33/B37-1)*100</f>
@@ -849,11 +851,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
-        <v>44743</v>
+      <c r="A34" s="2" t="n">
+        <v>44774</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>50.35</v>
+        <v>50.32</v>
       </c>
       <c r="C34">
         <f>(B34/B38-1)*100</f>
@@ -861,11 +863,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>44713</v>
+      <c r="A35" s="4" t="n">
+        <v>44743</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>50.42</v>
+        <v>50.35</v>
       </c>
       <c r="C35">
         <f>(B35/B39-1)*100</f>
@@ -873,11 +875,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
-        <v>44682</v>
+      <c r="A36" s="2" t="n">
+        <v>44713</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>52.23</v>
+        <v>50.42</v>
       </c>
       <c r="C36">
         <f>(B36/B40-1)*100</f>
@@ -885,11 +887,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>44652</v>
+      <c r="A37" s="4" t="n">
+        <v>44682</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>49.98</v>
+        <v>52.23</v>
       </c>
       <c r="C37">
         <f>(B37/B41-1)*100</f>
@@ -897,11 +899,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
-        <v>44621</v>
+      <c r="A38" s="2" t="n">
+        <v>44652</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>49.09</v>
+        <v>49.98</v>
       </c>
       <c r="C38">
         <f>(B38/B42-1)*100</f>
@@ -909,11 +911,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>44593</v>
+      <c r="A39" s="4" t="n">
+        <v>44621</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>51.41</v>
+        <v>49.09</v>
       </c>
       <c r="C39">
         <f>(B39/B43-1)*100</f>
@@ -921,11 +923,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n">
-        <v>44562</v>
+      <c r="A40" s="2" t="n">
+        <v>44593</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>51.51</v>
+        <v>51.41</v>
       </c>
       <c r="C40">
         <f>(B40/B44-1)*100</f>
@@ -933,10 +935,22 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="4" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>51.51</v>
+      </c>
+      <c r="C41">
+        <f>(B41/B45-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B42" s="3" t="n">
         <v>52.28</v>
       </c>
     </row>

--- a/data/confidence.xlsx
+++ b/data/confidence.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,11 +461,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1773656</v>
+        <v>1801904</v>
       </c>
       <c r="C2">
         <f>(B2/B6-1)*100</f>
@@ -475,11 +475,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1766328</v>
+        <v>1773656</v>
       </c>
       <c r="C3">
         <f>(B3/B7-1)*100</f>
@@ -489,11 +489,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1756560</v>
+        <v>1766328</v>
       </c>
       <c r="C4">
         <f>(B4/B8-1)*100</f>
@@ -503,35 +503,37 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1756560</v>
+      </c>
+      <c r="C5">
+        <f>(B5/B9-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>2024-09-01</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>1729048</v>
       </c>
-      <c r="C5">
-        <f>(B5/B9-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="C6">
+        <f>(B6/B10-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45627</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B7" s="3" t="n">
         <v>47.9</v>
-      </c>
-      <c r="C6" s="1">
-        <f>(B6/B10-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>48.6</v>
       </c>
       <c r="C7" s="1">
         <f>(B7/B11-1)*100</f>
@@ -539,11 +541,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45566</v>
+      <c r="A8" s="4" t="n">
+        <v>45597</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>49.1</v>
+        <v>48.6</v>
       </c>
       <c r="C8" s="1">
         <f>(B8/B12-1)*100</f>
@@ -551,11 +553,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
-        <v>45536</v>
+      <c r="A9" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>49.5</v>
+        <v>49.1</v>
       </c>
       <c r="C9" s="1">
         <f>(B9/B13-1)*100</f>
@@ -563,11 +565,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45505</v>
+      <c r="A10" s="4" t="n">
+        <v>45536</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>50.1</v>
+        <v>49.5</v>
       </c>
       <c r="C10" s="1">
         <f>(B10/B14-1)*100</f>
@@ -575,11 +577,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
-        <v>45474</v>
+      <c r="A11" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>47</v>
+        <v>50.1</v>
       </c>
       <c r="C11" s="1">
         <f>(B11/B15-1)*100</f>
@@ -587,11 +589,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45444</v>
+      <c r="A12" s="4" t="n">
+        <v>45474</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1">
         <f>(B12/B16-1)*100</f>
@@ -599,11 +601,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
-        <v>45413</v>
+      <c r="A13" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="C13" s="1">
         <f>(B13/B17-1)*100</f>
@@ -611,11 +613,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45383</v>
+      <c r="A14" s="4" t="n">
+        <v>45413</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>48</v>
+        <v>47.2</v>
       </c>
       <c r="C14" s="1">
         <f>(B14/B18-1)*100</f>
@@ -623,11 +625,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
-        <v>45352</v>
+      <c r="A15" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>47.89</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1">
         <f>(B15/B19-1)*100</f>
@@ -635,11 +637,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45323</v>
+      <c r="A16" s="4" t="n">
+        <v>45352</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>47.38</v>
+        <v>47.89</v>
       </c>
       <c r="C16" s="1">
         <f>(B16/B20-1)*100</f>
@@ -647,11 +649,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
-        <v>45292</v>
+      <c r="A17" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>49.46</v>
+        <v>47.38</v>
       </c>
       <c r="C17" s="1">
         <f>(B17/B21-1)*100</f>
@@ -659,11 +661,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45261</v>
+      <c r="A18" s="4" t="n">
+        <v>45292</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>46.57</v>
+        <v>49.46</v>
       </c>
       <c r="C18" s="1">
         <f>(B18/B22-1)*100</f>
@@ -671,11 +673,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
-        <v>45231</v>
+      <c r="A19" s="2" t="n">
+        <v>45261</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>47.26</v>
+        <v>46.57</v>
       </c>
       <c r="C19" s="1">
         <f>(B19/B23-1)*100</f>
@@ -683,11 +685,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45200</v>
+      <c r="A20" s="4" t="n">
+        <v>45231</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>45.56</v>
+        <v>47.26</v>
       </c>
       <c r="C20" s="1">
         <f>(B20/B24-1)*100</f>
@@ -695,11 +697,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n">
-        <v>45170</v>
+      <c r="A21" s="2" t="n">
+        <v>45200</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>47.66</v>
+        <v>45.56</v>
       </c>
       <c r="C21" s="1">
         <f>(B21/B25-1)*100</f>
@@ -707,11 +709,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45139</v>
+      <c r="A22" s="4" t="n">
+        <v>45170</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>46.9</v>
+        <v>47.66</v>
       </c>
       <c r="C22" s="1">
         <f>(B22/B26-1)*100</f>
@@ -719,11 +721,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n">
-        <v>45108</v>
+      <c r="A23" s="2" t="n">
+        <v>45139</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>49.55</v>
+        <v>46.9</v>
       </c>
       <c r="C23" s="1">
         <f>(B23/B27-1)*100</f>
@@ -731,11 +733,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45078</v>
+      <c r="A24" s="4" t="n">
+        <v>45108</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>51.43</v>
+        <v>49.55</v>
       </c>
       <c r="C24" s="1">
         <f>(B24/B28-1)*100</f>
@@ -743,11 +745,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n">
-        <v>45047</v>
+      <c r="A25" s="2" t="n">
+        <v>45078</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>49.54</v>
+        <v>51.43</v>
       </c>
       <c r="C25" s="1">
         <f>(B25/B29-1)*100</f>
@@ -755,11 +757,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45017</v>
+      <c r="A26" s="4" t="n">
+        <v>45047</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>49.24</v>
+        <v>49.54</v>
       </c>
       <c r="C26" s="1">
         <f>(B26/B30-1)*100</f>
@@ -767,11 +769,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n">
-        <v>44986</v>
+      <c r="A27" s="2" t="n">
+        <v>45017</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>47.28</v>
+        <v>49.24</v>
       </c>
       <c r="C27" s="1">
         <f>(B27/B31-1)*100</f>
@@ -779,11 +781,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>44958</v>
+      <c r="A28" s="4" t="n">
+        <v>44986</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>47.49</v>
+        <v>47.28</v>
       </c>
       <c r="C28" s="1">
         <f>(B28/B32-1)*100</f>
@@ -791,11 +793,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n">
-        <v>44927</v>
+      <c r="A29" s="2" t="n">
+        <v>44958</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>48.81</v>
+        <v>47.49</v>
       </c>
       <c r="C29" s="1">
         <f>(B29/B33-1)*100</f>
@@ -803,11 +805,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>44896</v>
+      <c r="A30" s="4" t="n">
+        <v>44927</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>49.34</v>
+        <v>48.81</v>
       </c>
       <c r="C30" s="1">
         <f>(B30/B34-1)*100</f>
@@ -815,23 +817,23 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="n">
+      <c r="A31" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>49.34</v>
+      </c>
+      <c r="C31" s="1">
+        <f>(B31/B35-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="n">
         <v>44866</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B32" s="3" t="n">
         <v>46.62</v>
-      </c>
-      <c r="C31">
-        <f>(B31/B35-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>44835</v>
-      </c>
-      <c r="B32" s="3" t="n">
-        <v>48.51</v>
       </c>
       <c r="C32">
         <f>(B32/B36-1)*100</f>
@@ -839,11 +841,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n">
-        <v>44805</v>
+      <c r="A33" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>50.14</v>
+        <v>48.51</v>
       </c>
       <c r="C33">
         <f>(B33/B37-1)*100</f>
@@ -851,11 +853,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>44774</v>
+      <c r="A34" s="4" t="n">
+        <v>44805</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>50.32</v>
+        <v>50.14</v>
       </c>
       <c r="C34">
         <f>(B34/B38-1)*100</f>
@@ -863,11 +865,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n">
-        <v>44743</v>
+      <c r="A35" s="2" t="n">
+        <v>44774</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>50.35</v>
+        <v>50.32</v>
       </c>
       <c r="C35">
         <f>(B35/B39-1)*100</f>
@@ -875,11 +877,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>44713</v>
+      <c r="A36" s="4" t="n">
+        <v>44743</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>50.42</v>
+        <v>50.35</v>
       </c>
       <c r="C36">
         <f>(B36/B40-1)*100</f>
@@ -887,11 +889,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="n">
-        <v>44682</v>
+      <c r="A37" s="2" t="n">
+        <v>44713</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>52.23</v>
+        <v>50.42</v>
       </c>
       <c r="C37">
         <f>(B37/B41-1)*100</f>
@@ -899,11 +901,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>44652</v>
+      <c r="A38" s="4" t="n">
+        <v>44682</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>49.98</v>
+        <v>52.23</v>
       </c>
       <c r="C38">
         <f>(B38/B42-1)*100</f>
@@ -911,11 +913,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="n">
-        <v>44621</v>
+      <c r="A39" s="2" t="n">
+        <v>44652</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>49.09</v>
+        <v>49.98</v>
       </c>
       <c r="C39">
         <f>(B39/B43-1)*100</f>
@@ -923,11 +925,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>44593</v>
+      <c r="A40" s="4" t="n">
+        <v>44621</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>51.41</v>
+        <v>49.09</v>
       </c>
       <c r="C40">
         <f>(B40/B44-1)*100</f>
@@ -935,11 +937,11 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="n">
-        <v>44562</v>
+      <c r="A41" s="2" t="n">
+        <v>44593</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>51.51</v>
+        <v>51.41</v>
       </c>
       <c r="C41">
         <f>(B41/B45-1)*100</f>
@@ -947,10 +949,22 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="4" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>51.51</v>
+      </c>
+      <c r="C42">
+        <f>(B42/B46-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B43" s="3" t="n">
         <v>52.28</v>
       </c>
     </row>
